--- a/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/output/modeloutput_nig.xlsx
+++ b/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/output/modeloutput_nig.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Wi2050\SDG Financing Simplified model (Egypt)\v4_commented and cleaned - for calibration\output\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409F7755-8F45-4377-9A93-4C5F8BBDB93A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3384" yWindow="3384" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3384" yWindow="3384" windowWidth="17280" windowHeight="9960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -127,25 +121,361 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -153,13 +483,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -167,17 +739,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -435,19 +1051,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AD6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="2:30">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -541,91 +1159,91 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>0.77032135678218361</v>
+        <v>2.66714146085077</v>
       </c>
       <c r="C2">
-        <v>0.79153725068794833</v>
+        <v>2.63984534740593</v>
       </c>
       <c r="D2">
-        <v>0.79100896218547401</v>
+        <v>2.63098779613426</v>
       </c>
       <c r="E2">
-        <v>0.78842323428661876</v>
+        <v>2.61516900729196</v>
       </c>
       <c r="F2">
-        <v>0.7842739700443313</v>
+        <v>2.59446238587535</v>
       </c>
       <c r="G2">
-        <v>0.77796612461482129</v>
+        <v>2.56641645514915</v>
       </c>
       <c r="H2">
-        <v>0.78157099808262021</v>
+        <v>2.56297850252214</v>
       </c>
       <c r="I2">
-        <v>0.77474897843470569</v>
+        <v>2.55277386818108</v>
       </c>
       <c r="J2">
-        <v>0.77855540621770447</v>
+        <v>2.56942114477631</v>
       </c>
       <c r="K2">
-        <v>0.79249843332353975</v>
+        <v>2.5956082236218</v>
       </c>
       <c r="L2">
-        <v>0.7889102404707965</v>
+        <v>2.6155578366544</v>
       </c>
       <c r="M2">
-        <v>0.80324962990237525</v>
+        <v>2.62728034118552</v>
       </c>
       <c r="N2">
-        <v>0.80336811557863586</v>
+        <v>2.66938208762344</v>
       </c>
       <c r="O2">
-        <v>0.807768591538503</v>
+        <v>2.70170734041501</v>
       </c>
       <c r="P2">
-        <v>0.81528511588844843</v>
+        <v>2.73575409126791</v>
       </c>
       <c r="Q2">
-        <v>0.82091482665158944</v>
+        <v>2.76228046895997</v>
       </c>
       <c r="R2">
-        <v>0.83710235597199456</v>
+        <v>2.78172717483785</v>
       </c>
       <c r="S2">
-        <v>0.84005285508160776</v>
+        <v>2.79633541222824</v>
       </c>
       <c r="T2">
-        <v>0.83291830351132368</v>
+        <v>2.81332091877356</v>
       </c>
       <c r="U2">
-        <v>0.82723847787989646</v>
+        <v>2.8026164544932</v>
       </c>
       <c r="V2">
-        <v>0.84657600201011818</v>
+        <v>2.79267172090824</v>
       </c>
       <c r="W2">
-        <v>0.83249825053905457</v>
+        <v>2.78379566190314</v>
       </c>
       <c r="X2">
-        <v>0.82141257489832464</v>
+        <v>2.77273658387919</v>
       </c>
       <c r="Y2">
-        <v>0.80854635178593515</v>
+        <v>2.73638211790594</v>
       </c>
       <c r="Z2">
-        <v>0.81182841228564584</v>
+        <v>2.70751201347448</v>
       </c>
       <c r="AA2">
-        <v>0.79554877106832611</v>
+        <v>2.68507562458961</v>
       </c>
       <c r="AB2">
-        <v>0.80167930377614605</v>
+        <v>2.66756541076871</v>
       </c>
       <c r="AC2">
-        <v>0.78773105184126713</v>
+        <v>2.65327442332726</v>
       </c>
       <c r="AD2">
-        <v>1.9727819273521231E-2</v>
+        <v>1.0741015685904</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -633,79 +1251,91 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>0.3845167651452196</v>
+        <v>0.138291893778828</v>
+      </c>
+      <c r="C3">
+        <v>0.00868460222766115</v>
+      </c>
+      <c r="D3">
+        <v>0.00275968874027209</v>
       </c>
       <c r="E3">
-        <v>1.6555275667960129E-3</v>
+        <v>0.0317175108756728</v>
       </c>
       <c r="F3">
-        <v>7.4489349969042397E-3</v>
+        <v>0.0187635145991908</v>
       </c>
       <c r="G3">
-        <v>1.8891934519238651E-2</v>
+        <v>0.0211538262517178</v>
+      </c>
+      <c r="H3">
+        <v>0.023062345148878</v>
       </c>
       <c r="I3">
-        <v>2.7308271303546877E-2</v>
+        <v>0.0217325113077636</v>
       </c>
       <c r="J3">
-        <v>3.1325625392895087E-2</v>
+        <v>0.0325215750073404</v>
       </c>
       <c r="K3">
-        <v>6.8197619235102263E-3</v>
+        <v>0.0538290928094885</v>
       </c>
       <c r="L3">
-        <v>1.1573859144218504E-2</v>
+        <v>0.129123251290994</v>
       </c>
       <c r="M3">
-        <v>7.7187443269949247E-3</v>
+        <v>0.0432581134543164</v>
       </c>
       <c r="N3">
-        <v>5.2823492004850084E-3</v>
+        <v>0.0600120432667497</v>
       </c>
       <c r="O3">
-        <v>2.5045915609394672E-2</v>
+        <v>0.103741912503873</v>
       </c>
       <c r="P3">
-        <v>1.4374426403262813E-2</v>
+        <v>0.0957359875767206</v>
       </c>
       <c r="Q3">
-        <v>2.3119329910457145E-2</v>
+        <v>0.0889951629872455</v>
       </c>
       <c r="R3">
-        <v>5.2750213358164506E-3</v>
+        <v>0.0833508072953554</v>
       </c>
       <c r="S3">
-        <v>5.7794827387028106E-3</v>
+        <v>0.0785615436616432</v>
       </c>
       <c r="T3">
-        <v>6.6038671397526871E-3</v>
+        <v>0.0737418588621806</v>
       </c>
       <c r="U3">
-        <v>1.541978917291182E-2</v>
+        <v>0.0723385321553296</v>
       </c>
       <c r="V3">
-        <v>4.7145848441683532E-3</v>
+        <v>0.0707859240789843</v>
       </c>
       <c r="W3">
-        <v>5.4545195636740065E-3</v>
+        <v>0.0691201164267513</v>
       </c>
       <c r="X3">
-        <v>6.4791274543867664E-3</v>
+        <v>0.0677408379460808</v>
       </c>
       <c r="Y3">
-        <v>2.7902206692593617E-2</v>
+        <v>0.068893094745951</v>
       </c>
       <c r="Z3">
-        <v>6.7969372121359185E-3</v>
+        <v>0.0693066190544805</v>
       </c>
       <c r="AA3">
-        <v>6.5449993658165048E-3</v>
+        <v>0.0691204031455293</v>
       </c>
       <c r="AB3">
-        <v>6.8603756406630896E-3</v>
+        <v>0.068456839902737</v>
       </c>
       <c r="AC3">
-        <v>0.18247308185779998</v>
+        <v>0.0674605935094997</v>
+      </c>
+      <c r="AD3">
+        <v>0.00740938292781027</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -713,96 +1343,101 @@
         <v>31</v>
       </c>
       <c r="B4">
-        <v>0.33592215753846172</v>
+        <v>0.120814787648386</v>
+      </c>
+      <c r="C4">
+        <v>0.12006936546873</v>
+      </c>
+      <c r="D4">
+        <v>0.11705462447824</v>
       </c>
       <c r="E4">
-        <v>1.0813706698144939E-2</v>
+        <v>0.114734995495032</v>
       </c>
       <c r="F4">
-        <v>1.7071362313175888E-2</v>
+        <v>0.112903756809377</v>
       </c>
       <c r="G4">
-        <v>1.6554281135058753E-2</v>
+        <v>0.111821070661129</v>
+      </c>
+      <c r="H4">
+        <v>0.108022801497094</v>
       </c>
       <c r="I4">
-        <v>2.9205712054934233E-2</v>
+        <v>0.105002737894877</v>
       </c>
       <c r="J4">
-        <v>3.0259614606676644E-2</v>
+        <v>0.0993488091599096</v>
       </c>
       <c r="K4">
-        <v>2.0532231466559747E-2</v>
+        <v>0.093141814162592</v>
       </c>
       <c r="L4">
-        <v>0.13037511720727316</v>
+        <v>0.0878608690784055</v>
       </c>
       <c r="M4">
-        <v>2.196643166143853E-2</v>
+        <v>0.0835396232300197</v>
       </c>
       <c r="N4">
-        <v>7.0414085852463684E-2</v>
+        <v>0.0771763638684962</v>
       </c>
       <c r="O4">
-        <v>0.19336609652440639</v>
+        <v>0.0719920508916514</v>
       </c>
       <c r="P4">
-        <v>0.18075162998553923</v>
+        <v>0.0146856431359474</v>
       </c>
       <c r="Q4">
-        <v>0.17010178029527748</v>
+        <v>0.0629498561061811</v>
       </c>
       <c r="R4">
-        <v>0.15869579666328226</v>
+        <v>0.0594682297670823</v>
       </c>
       <c r="S4">
-        <v>0.15089230962097025</v>
+        <v>0.0564468890316174</v>
       </c>
       <c r="T4">
-        <v>5.0318961150194831E-2</v>
+        <v>0.0534813866161824</v>
       </c>
       <c r="U4">
-        <v>0.14136049501857884</v>
+        <v>0.0519577902683345</v>
       </c>
       <c r="V4">
-        <v>0.13366378328418327</v>
+        <v>0.0504562966422392</v>
       </c>
       <c r="W4">
-        <v>0.13149208095565298</v>
+        <v>0.0129072202301208</v>
       </c>
       <c r="X4">
-        <v>4.8183430338469585E-2</v>
+        <v>0.0121950742874783</v>
       </c>
       <c r="Y4">
-        <v>0.1289591748886352</v>
+        <v>0.0122396008906645</v>
       </c>
       <c r="Z4">
-        <v>8.8559519270872827E-3</v>
+        <v>0.0123666864312883</v>
       </c>
       <c r="AA4">
-        <v>0.12540051634617688</v>
+        <v>0.0116629720656179</v>
       </c>
       <c r="AB4">
-        <v>8.5682603744396263E-3</v>
+        <v>0.0120081814948169</v>
       </c>
       <c r="AC4">
-        <v>0.12010446617119273</v>
+        <v>0.010898986383359</v>
       </c>
       <c r="AD4">
-        <v>0.64592800782752557</v>
+        <v>0.00572621134885813</v>
       </c>
     </row>
     <row r="5" spans="1:30">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B5">
-        <v>1.4356943851396449E-3</v>
-      </c>
-      <c r="C5">
-        <v>1.0382656958191352E-3</v>
-      </c>
+      <c r="B5"/>
+      <c r="C5"/>
       <c r="AD5">
-        <v>1.4721369612485241E-8</v>
+        <v>3.76115387063823e-5</v>
       </c>
     </row>
     <row r="6" spans="1:30">
@@ -810,94 +1445,95 @@
         <v>33</v>
       </c>
       <c r="B6">
-        <v>0.77987461706882111</v>
+        <v>0.317106681615138</v>
       </c>
       <c r="C6">
-        <v>5.9038265695819138E-2</v>
+        <v>0.186753967884407</v>
       </c>
       <c r="D6">
-        <v>5.800000061929448E-2</v>
+        <v>0.177814313404704</v>
       </c>
       <c r="E6">
-        <v>7.0469234876626402E-2</v>
+        <v>0.204452506555116</v>
       </c>
       <c r="F6">
-        <v>8.2520297914402393E-2</v>
+        <v>0.189667271591247</v>
       </c>
       <c r="G6">
-        <v>9.3446216251970401E-2</v>
+        <v>0.190974897094021</v>
       </c>
       <c r="H6">
-        <v>5.8000000582700939E-2</v>
+        <v>0.189085146823664</v>
       </c>
       <c r="I6">
-        <v>0.11451398393370602</v>
+        <v>0.184735249377217</v>
       </c>
       <c r="J6">
-        <v>0.11958524055918791</v>
+        <v>0.189870384336818</v>
       </c>
       <c r="K6">
-        <v>8.5351993927584163E-2</v>
+        <v>0.204970907136196</v>
       </c>
       <c r="L6">
-        <v>0.19994897687928229</v>
+        <v>0.274984120528593</v>
       </c>
       <c r="M6">
-        <v>8.7685176495012923E-2</v>
+        <v>0.184797736839215</v>
       </c>
       <c r="N6">
-        <v>0.13369643554800542</v>
+        <v>0.195188407284236</v>
       </c>
       <c r="O6">
-        <v>0.27641201261497306</v>
+        <v>0.233733963539387</v>
       </c>
       <c r="P6">
-        <v>0.25312605685474393</v>
+        <v>0.168421630851524</v>
       </c>
       <c r="Q6">
-        <v>0.25122111065797503</v>
+        <v>0.209945019227827</v>
       </c>
       <c r="R6">
-        <v>0.22197081843247807</v>
+        <v>0.200819037192854</v>
       </c>
       <c r="S6">
-        <v>0.21467179278189036</v>
+        <v>0.1930084328201</v>
       </c>
       <c r="T6">
-        <v>0.11492282870646769</v>
+        <v>0.185223245601679</v>
       </c>
       <c r="U6">
-        <v>0.21478028460179999</v>
+        <v>0.182296322544774</v>
       </c>
       <c r="V6">
-        <v>0.19637836852078711</v>
+        <v>0.179242220840187</v>
       </c>
       <c r="W6">
-        <v>0.19494660091015614</v>
+        <v>0.14002733677375</v>
       </c>
       <c r="X6">
-        <v>0.11266255818106545</v>
+        <v>0.137935912348565</v>
       </c>
       <c r="Y6">
-        <v>0.2148613819680274</v>
+        <v>0.139132695750907</v>
       </c>
       <c r="Z6">
-        <v>7.3652889517381456E-2</v>
+        <v>0.139673305599157</v>
       </c>
       <c r="AA6">
-        <v>0.18994551609114585</v>
+        <v>0.138783375323485</v>
       </c>
       <c r="AB6">
-        <v>7.3428636385125534E-2</v>
+        <v>0.138465021508756</v>
       </c>
       <c r="AC6">
-        <v>0.36057754839961853</v>
+        <v>0.136359580002894</v>
       </c>
       <c r="AD6">
-        <v>0.70392802254889519</v>
+        <v>0.07117320581537</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>